--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H2">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I2">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J2">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N2">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O2">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P2">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q2">
-        <v>4.746881622625</v>
+        <v>4.597993767179999</v>
       </c>
       <c r="R2">
-        <v>42.721934603625</v>
+        <v>41.38194390462</v>
       </c>
       <c r="S2">
-        <v>0.008975147840144795</v>
+        <v>0.01521741282557673</v>
       </c>
       <c r="T2">
-        <v>0.008975147840144793</v>
+        <v>0.01521741282557673</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H3">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I3">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J3">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.29568</v>
       </c>
       <c r="O3">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P3">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q3">
-        <v>8.709004676800003</v>
+        <v>8.876842673599999</v>
       </c>
       <c r="R3">
-        <v>78.38104209120002</v>
+        <v>79.8915840624</v>
       </c>
       <c r="S3">
-        <v>0.01646651648994943</v>
+        <v>0.02937859127084357</v>
       </c>
       <c r="T3">
-        <v>0.01646651648994943</v>
+        <v>0.02937859127084357</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H4">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I4">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J4">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N4">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O4">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P4">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q4">
-        <v>18.087571167245</v>
+        <v>24.916417263815</v>
       </c>
       <c r="R4">
-        <v>162.788140505205</v>
+        <v>224.247755374335</v>
       </c>
       <c r="S4">
-        <v>0.03419900435717878</v>
+        <v>0.08246279286940943</v>
       </c>
       <c r="T4">
-        <v>0.03419900435717877</v>
+        <v>0.08246279286940944</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H5">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I5">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J5">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N5">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O5">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P5">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q5">
-        <v>5.147962829488334</v>
+        <v>2.747956626103333</v>
       </c>
       <c r="R5">
-        <v>46.33166546539501</v>
+        <v>24.73160963493</v>
       </c>
       <c r="S5">
-        <v>0.009733490561468328</v>
+        <v>0.009094573095047957</v>
       </c>
       <c r="T5">
-        <v>0.009733490561468329</v>
+        <v>0.009094573095047957</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.927655000000001</v>
+        <v>8.080435</v>
       </c>
       <c r="H6">
-        <v>23.782965</v>
+        <v>24.241305</v>
       </c>
       <c r="I6">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979475</v>
       </c>
       <c r="J6">
-        <v>0.1200556835465435</v>
+        <v>0.1496988574979476</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N6">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O6">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P6">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q6">
-        <v>26.80503993703334</v>
+        <v>4.092815744893334</v>
       </c>
       <c r="R6">
-        <v>241.2453594333</v>
+        <v>36.83534170404</v>
       </c>
       <c r="S6">
-        <v>0.05068152429780221</v>
+        <v>0.01354548743706986</v>
       </c>
       <c r="T6">
-        <v>0.0506815242978022</v>
+        <v>0.01354548743706986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>38.941596</v>
       </c>
       <c r="I7">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J7">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N7">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O7">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P7">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q7">
-        <v>7.7724180483</v>
+        <v>7.386286162896001</v>
       </c>
       <c r="R7">
-        <v>69.9517624347</v>
+        <v>66.47657546606401</v>
       </c>
       <c r="S7">
-        <v>0.01469566898959786</v>
+        <v>0.02444548024204257</v>
       </c>
       <c r="T7">
-        <v>0.01469566898959785</v>
+        <v>0.02444548024204257</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>38.941596</v>
       </c>
       <c r="I8">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J8">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>3.29568</v>
       </c>
       <c r="O8">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P8">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q8">
-        <v>14.25989323392001</v>
+        <v>14.25989323392</v>
       </c>
       <c r="R8">
         <v>128.33903910528</v>
       </c>
       <c r="S8">
-        <v>0.02696183729316124</v>
+        <v>0.04719420973080109</v>
       </c>
       <c r="T8">
-        <v>0.02696183729316124</v>
+        <v>0.04719420973080109</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>38.941596</v>
       </c>
       <c r="I9">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J9">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N9">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O9">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P9">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q9">
-        <v>29.61610922002801</v>
+        <v>40.02610646806801</v>
       </c>
       <c r="R9">
-        <v>266.544982980252</v>
+        <v>360.2349582126121</v>
       </c>
       <c r="S9">
-        <v>0.05599654253704262</v>
+        <v>0.132469467504007</v>
       </c>
       <c r="T9">
-        <v>0.05599654253704259</v>
+        <v>0.132469467504007</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>38.941596</v>
       </c>
       <c r="I10">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J10">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N10">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O10">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P10">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q10">
-        <v>8.429137776932002</v>
+        <v>4.414358746744001</v>
       </c>
       <c r="R10">
-        <v>75.86223999238801</v>
+        <v>39.72922872069601</v>
       </c>
       <c r="S10">
-        <v>0.01593735924492648</v>
+        <v>0.01460965864914563</v>
       </c>
       <c r="T10">
-        <v>0.01593735924492648</v>
+        <v>0.01460965864914563</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>38.941596</v>
       </c>
       <c r="I11">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="J11">
-        <v>0.1965759915205419</v>
+        <v>0.2404784903431001</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N11">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O11">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P11">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q11">
-        <v>43.88986133528001</v>
+        <v>6.574760609632001</v>
       </c>
       <c r="R11">
-        <v>395.0087520175201</v>
+        <v>59.172845486688</v>
       </c>
       <c r="S11">
-        <v>0.08298458345581375</v>
+        <v>0.02175967421710382</v>
       </c>
       <c r="T11">
-        <v>0.08298458345581372</v>
+        <v>0.02175967421710382</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H12">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I12">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J12">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N12">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O12">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P12">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q12">
-        <v>13.14402238595833</v>
+        <v>8.681940347452</v>
       </c>
       <c r="R12">
-        <v>118.296201473625</v>
+        <v>78.137463127068</v>
       </c>
       <c r="S12">
-        <v>0.02485200885690345</v>
+        <v>0.02873354708247828</v>
       </c>
       <c r="T12">
-        <v>0.02485200885690345</v>
+        <v>0.02873354708247828</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H13">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I13">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J13">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.29568</v>
       </c>
       <c r="O13">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P13">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q13">
-        <v>24.11506364213334</v>
+        <v>16.76127077770667</v>
       </c>
       <c r="R13">
-        <v>217.0355727792</v>
+        <v>150.85143699936</v>
       </c>
       <c r="S13">
-        <v>0.04559546215162601</v>
+        <v>0.05547271045173056</v>
       </c>
       <c r="T13">
-        <v>0.04559546215162601</v>
+        <v>0.05547271045173055</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H14">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I14">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J14">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N14">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O14">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P14">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q14">
-        <v>50.08413085271167</v>
+        <v>47.04722522695767</v>
       </c>
       <c r="R14">
-        <v>450.757177674405</v>
+        <v>423.425027042619</v>
       </c>
       <c r="S14">
-        <v>0.09469637429038442</v>
+        <v>0.1557063982310691</v>
       </c>
       <c r="T14">
-        <v>0.09469637429038441</v>
+        <v>0.1557063982310691</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H15">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I15">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J15">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N15">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O15">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P15">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q15">
-        <v>14.25460840446611</v>
+        <v>5.188696791089111</v>
       </c>
       <c r="R15">
-        <v>128.291475640195</v>
+        <v>46.69827111980201</v>
       </c>
       <c r="S15">
-        <v>0.02695184502256562</v>
+        <v>0.0171723897627583</v>
       </c>
       <c r="T15">
-        <v>0.02695184502256563</v>
+        <v>0.01717238976275829</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.95152166666666</v>
+        <v>15.25749233333333</v>
       </c>
       <c r="H16">
-        <v>65.85456499999999</v>
+        <v>45.772477</v>
       </c>
       <c r="I16">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="J16">
-        <v>0.3324318400054526</v>
+        <v>0.2826616599952471</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N16">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O16">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P16">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q16">
-        <v>74.2226314028111</v>
+        <v>7.728062270095112</v>
       </c>
       <c r="R16">
-        <v>668.0036826252999</v>
+        <v>69.552560430856</v>
       </c>
       <c r="S16">
-        <v>0.1403361496839731</v>
+        <v>0.02557661446721078</v>
       </c>
       <c r="T16">
-        <v>0.1403361496839731</v>
+        <v>0.02557661446721078</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H17">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I17">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J17">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N17">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O17">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P17">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q17">
-        <v>2.258085709808333</v>
+        <v>2.3574403269</v>
       </c>
       <c r="R17">
-        <v>20.322771388275</v>
+        <v>21.2169629421</v>
       </c>
       <c r="S17">
-        <v>0.004269466713610763</v>
+        <v>0.007802129468327199</v>
       </c>
       <c r="T17">
-        <v>0.004269466713610763</v>
+        <v>0.007802129468327198</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H18">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I18">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J18">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.29568</v>
       </c>
       <c r="O18">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P18">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q18">
-        <v>4.142862740373334</v>
+        <v>4.551251688</v>
       </c>
       <c r="R18">
-        <v>37.28576466336001</v>
+        <v>40.961265192</v>
       </c>
       <c r="S18">
-        <v>0.007833101503743879</v>
+        <v>0.01506271633157864</v>
       </c>
       <c r="T18">
-        <v>0.007833101503743879</v>
+        <v>0.01506271633157863</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H19">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I19">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J19">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N19">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O19">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P19">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q19">
-        <v>8.604235206377668</v>
+        <v>12.774912240825</v>
       </c>
       <c r="R19">
-        <v>77.43811685739901</v>
+        <v>114.974210167425</v>
       </c>
       <c r="S19">
-        <v>0.01626842402400457</v>
+        <v>0.04227955130491095</v>
       </c>
       <c r="T19">
-        <v>0.01626842402400456</v>
+        <v>0.04227955130491095</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H20">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I20">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J20">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N20">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O20">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P20">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q20">
-        <v>2.448879543253445</v>
+        <v>1.40890660035</v>
       </c>
       <c r="R20">
-        <v>22.039915889281</v>
+        <v>12.68015940315</v>
       </c>
       <c r="S20">
-        <v>0.004630209407086841</v>
+        <v>0.004662884391719204</v>
       </c>
       <c r="T20">
-        <v>0.004630209407086841</v>
+        <v>0.004662884391719203</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.771175666666667</v>
+        <v>4.142925</v>
       </c>
       <c r="H21">
-        <v>11.313527</v>
+        <v>12.428775</v>
       </c>
       <c r="I21">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="J21">
-        <v>0.057110339997863</v>
+        <v>0.07675219702895753</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N21">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O21">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P21">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q21">
-        <v>12.75112430530445</v>
+        <v>2.0984301798</v>
       </c>
       <c r="R21">
-        <v>114.76011874774</v>
+        <v>18.8858716182</v>
       </c>
       <c r="S21">
-        <v>0.02410913834941696</v>
+        <v>0.00694491553242154</v>
       </c>
       <c r="T21">
-        <v>0.02410913834941695</v>
+        <v>0.006944915532421539</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H22">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I22">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J22">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5987749999999999</v>
+        <v>0.569028</v>
       </c>
       <c r="N22">
-        <v>1.796325</v>
+        <v>1.707084</v>
       </c>
       <c r="O22">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="P22">
-        <v>0.07475820864961619</v>
+        <v>0.1016535000995941</v>
       </c>
       <c r="Q22">
-        <v>11.61759182415</v>
+        <v>7.691295034048001</v>
       </c>
       <c r="R22">
-        <v>104.55832641735</v>
+        <v>69.22165530643201</v>
       </c>
       <c r="S22">
-        <v>0.02196591624935933</v>
+        <v>0.02545493048116931</v>
       </c>
       <c r="T22">
-        <v>0.02196591624935933</v>
+        <v>0.02545493048116931</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H23">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I23">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J23">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.29568</v>
       </c>
       <c r="O23">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="P23">
-        <v>0.137157325696835</v>
+        <v>0.1962512724671019</v>
       </c>
       <c r="Q23">
-        <v>21.31455333696001</v>
+        <v>14.84874043562667</v>
       </c>
       <c r="R23">
-        <v>191.83098003264</v>
+        <v>133.63866392064</v>
       </c>
       <c r="S23">
-        <v>0.04030040825835447</v>
+        <v>0.04914304468214808</v>
       </c>
       <c r="T23">
-        <v>0.04030040825835447</v>
+        <v>0.04914304468214807</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H24">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I24">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J24">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.281579</v>
+        <v>3.083549</v>
       </c>
       <c r="N24">
-        <v>6.844737</v>
+        <v>9.250647000000001</v>
       </c>
       <c r="O24">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="P24">
-        <v>0.2848595197404412</v>
+        <v>0.5508578638987945</v>
       </c>
       <c r="Q24">
-        <v>44.26780265801401</v>
+        <v>41.67894218025067</v>
       </c>
       <c r="R24">
-        <v>398.4102239221261</v>
+        <v>375.1104796222561</v>
       </c>
       <c r="S24">
-        <v>0.08369917453183087</v>
+        <v>0.1379396539893979</v>
       </c>
       <c r="T24">
-        <v>0.08369917453183086</v>
+        <v>0.1379396539893979</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H25">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I25">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J25">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.6493676666666667</v>
+        <v>0.3400753333333333</v>
       </c>
       <c r="N25">
-        <v>1.948103</v>
+        <v>1.020226</v>
       </c>
       <c r="O25">
-        <v>0.08107480024212949</v>
+        <v>0.06075245494223394</v>
       </c>
       <c r="P25">
-        <v>0.0810748002421295</v>
+        <v>0.06075245494223393</v>
       </c>
       <c r="Q25">
-        <v>12.599204200466</v>
+        <v>4.596645020049778</v>
       </c>
       <c r="R25">
-        <v>113.392837804194</v>
+        <v>41.369805180448</v>
       </c>
       <c r="S25">
-        <v>0.02382189600608223</v>
+        <v>0.01521294904356285</v>
       </c>
       <c r="T25">
-        <v>0.02382189600608224</v>
+        <v>0.01521294904356285</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.402266</v>
+        <v>13.51654933333334</v>
       </c>
       <c r="H26">
-        <v>58.20679800000001</v>
+        <v>40.549648</v>
       </c>
       <c r="I26">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="J26">
-        <v>0.2938261449295991</v>
+        <v>0.2504087951347477</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.381206666666667</v>
+        <v>0.5065093333333334</v>
       </c>
       <c r="N26">
-        <v>10.14362</v>
+        <v>1.519528</v>
       </c>
       <c r="O26">
-        <v>0.4221501456709782</v>
+        <v>0.0904849085922755</v>
       </c>
       <c r="P26">
-        <v>0.4221501456709781</v>
+        <v>0.09048490859227548</v>
       </c>
       <c r="Q26">
-        <v>65.60307114764001</v>
+        <v>6.846258391793779</v>
       </c>
       <c r="R26">
-        <v>590.42764032876</v>
+        <v>61.61632552614401</v>
       </c>
       <c r="S26">
-        <v>0.1240387498839722</v>
+        <v>0.02265821693846948</v>
       </c>
       <c r="T26">
-        <v>0.1240387498839722</v>
+        <v>0.02265821693846948</v>
       </c>
     </row>
   </sheetData>
